--- a/Sample_Sprint Backlog & Burndown Chart.xlsx
+++ b/Sample_Sprint Backlog & Burndown Chart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\RetailBanking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696AB873-BADC-46BD-AADD-AD42186208E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="88">
   <si>
     <t>Story #</t>
   </si>
@@ -246,12 +245,51 @@
   </si>
   <si>
     <t>Bug fixes if any</t>
+  </si>
+  <si>
+    <t>Design the UI for new customer page</t>
+  </si>
+  <si>
+    <t>Design the UI for update customer page</t>
+  </si>
+  <si>
+    <t>Design the UI for delete customer page</t>
+  </si>
+  <si>
+    <t>Design the UI for account status page</t>
+  </si>
+  <si>
+    <t>Design the UI for customer status page</t>
+  </si>
+  <si>
+    <t>Co-Design the UI for new customer page</t>
+  </si>
+  <si>
+    <t>Design the UI for view customer page</t>
+  </si>
+  <si>
+    <t>Added functionality and database queries</t>
+  </si>
+  <si>
+    <t>Design the UI for search customer page</t>
+  </si>
+  <si>
+    <t>Design the UI and Functionality</t>
+  </si>
+  <si>
+    <t>Design the UI for Transfer money page</t>
+  </si>
+  <si>
+    <t>Design the UI for Account Statement page</t>
+  </si>
+  <si>
+    <t>Database creation and bug fixes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="[$-409]General"/>
@@ -511,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,39 +563,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="%" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_Q4 CC Business Scenarios" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Excel Built-in Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Excel Built-in Good" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Graphics" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Heading" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="%" xfId="2"/>
+    <cellStyle name="_Q4 CC Business Scenarios" xfId="3"/>
+    <cellStyle name="Currency 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Bad" xfId="5"/>
+    <cellStyle name="Excel Built-in Good" xfId="6"/>
+    <cellStyle name="Graphics" xfId="7"/>
+    <cellStyle name="Heading" xfId="8"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading1 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Heading1" xfId="9"/>
+    <cellStyle name="Heading1 1" xfId="10"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 7" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 7 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Percent 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Result" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Result 1" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Result2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Result2 1" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Style 1" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2" xfId="12"/>
+    <cellStyle name="Normal 2 2" xfId="13"/>
+    <cellStyle name="Normal 2 2 2" xfId="14"/>
+    <cellStyle name="Normal 2 3" xfId="15"/>
+    <cellStyle name="Normal 3" xfId="16"/>
+    <cellStyle name="Normal 4" xfId="17"/>
+    <cellStyle name="Normal 5" xfId="18"/>
+    <cellStyle name="Normal 6" xfId="19"/>
+    <cellStyle name="Normal 7" xfId="20"/>
+    <cellStyle name="Normal 7 2" xfId="21"/>
+    <cellStyle name="Percent 2" xfId="22"/>
+    <cellStyle name="Result" xfId="23"/>
+    <cellStyle name="Result 1" xfId="24"/>
+    <cellStyle name="Result2" xfId="25"/>
+    <cellStyle name="Result2 1" xfId="26"/>
+    <cellStyle name="Style 1" xfId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1248,43 +1286,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9" t="s">
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1303,13 +1341,13 @@
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1347,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1384,8 +1422,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1421,10 +1459,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1434,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
@@ -1456,8 +1494,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -1487,8 +1525,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1518,10 +1556,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1553,8 +1591,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1600,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1584,8 +1622,8 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1653,8 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1646,10 +1684,10 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1681,8 +1719,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
@@ -1712,8 +1750,8 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1743,8 +1781,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1774,10 +1812,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1809,8 +1847,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
@@ -1840,8 +1878,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1871,8 +1909,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1896,10 +1934,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1909,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
@@ -1931,8 +1969,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
@@ -1962,8 +2000,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1993,8 +2031,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
@@ -2016,8 +2054,8 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
@@ -2039,10 +2077,10 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2074,8 +2112,8 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
@@ -2083,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
@@ -2105,8 +2143,8 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
@@ -2136,8 +2174,8 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
@@ -2159,8 +2197,8 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2182,10 +2220,10 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2195,7 +2233,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4">
         <v>6</v>
@@ -2217,8 +2255,8 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2264,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F32" s="4">
         <v>5</v>
@@ -2248,8 +2286,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="37.5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
@@ -2279,8 +2317,8 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2302,8 +2340,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2325,10 +2363,10 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2338,7 +2376,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F36" s="4">
         <v>6</v>
@@ -2360,8 +2398,8 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
         <v>20</v>
       </c>
@@ -2369,7 +2407,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4">
         <v>5</v>
@@ -2391,8 +2429,8 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2460,8 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2445,10 +2483,10 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2458,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4">
         <v>6</v>
@@ -2480,8 +2518,8 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4">
         <v>5</v>
@@ -2511,8 +2549,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
@@ -2542,8 +2580,8 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
@@ -2565,8 +2603,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
@@ -2588,10 +2626,10 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2601,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F45" s="4">
         <v>6</v>
@@ -2623,8 +2661,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2632,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F46" s="4">
         <v>5</v>
@@ -2654,8 +2692,8 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
@@ -2685,8 +2723,8 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
@@ -2708,8 +2746,8 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
         <v>38</v>
       </c>
@@ -2731,10 +2769,10 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2744,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F50" s="4">
         <v>6</v>
@@ -2766,8 +2804,8 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
         <v>20</v>
       </c>
@@ -2775,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -2797,8 +2835,8 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
@@ -2828,8 +2866,8 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
         <v>39</v>
       </c>
@@ -2851,8 +2889,8 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
         <v>38</v>
       </c>
@@ -2874,10 +2912,10 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2887,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F55" s="4">
         <v>6</v>
@@ -2909,8 +2947,8 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="3" t="s">
         <v>20</v>
       </c>
@@ -2918,7 +2956,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
@@ -2940,8 +2978,8 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
@@ -2971,8 +3009,8 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="3" t="s">
         <v>39</v>
       </c>
@@ -2994,8 +3032,8 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="3" t="s">
         <v>38</v>
       </c>
@@ -3017,10 +3055,10 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -3052,8 +3090,8 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="3" t="s">
         <v>20</v>
       </c>
@@ -3061,7 +3099,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F61" s="4">
         <v>5</v>
@@ -3083,8 +3121,8 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
@@ -3114,10 +3152,10 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -3149,8 +3187,8 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="3" t="s">
         <v>20</v>
       </c>
@@ -3181,32 +3219,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A3:A5"/>
@@ -3219,6 +3231,32 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3227,7 +3265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A20:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
